--- a/2018年前发货表.xlsx
+++ b/2018年前发货表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="食用说明" sheetId="13" r:id="rId1"/>
@@ -3405,7 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -20466,9 +20466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/2018年前发货表.xlsx
+++ b/2018年前发货表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="食用说明" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="785">
   <si>
     <t>花花</t>
   </si>
@@ -2921,6 +2921,82 @@
   </si>
   <si>
     <t>C宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国服秋季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军装亚克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国服春季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆虎子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆puka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖喱贴纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国服秋季吧唧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推吧唧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推吧唧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3065,7 +3141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3083,6 +3159,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3405,51 +3482,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:9" ht="14" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="14" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="14" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -3744,9 +3821,9 @@
   <dimension ref="A1:AC80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3755,42 +3832,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Z1" s="23" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Z1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
     </row>
     <row r="2" spans="1:29" ht="15">
       <c r="A2" s="1" t="s">
@@ -4169,13 +4246,13 @@
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="K8" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="10">
         <v>1</v>
       </c>
       <c r="P8" s="1"/>
@@ -4227,13 +4304,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>234</v>
       </c>
       <c r="N9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>16</v>
@@ -4284,10 +4361,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>337</v>
+        <v>503</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>234</v>
+        <v>492</v>
       </c>
       <c r="N10" s="10">
         <v>2</v>
@@ -4345,10 +4422,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>491</v>
+        <v>668</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>492</v>
+        <v>632</v>
       </c>
       <c r="N11" s="10">
         <v>1</v>
@@ -4400,15 +4477,6 @@
       </c>
       <c r="I12" s="2">
         <v>1</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="N12" s="10">
-        <v>2</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>21</v>
@@ -4458,15 +4526,6 @@
         <v>74</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="N13" s="10">
         <v>1</v>
       </c>
       <c r="P13" s="1"/>
@@ -6176,18 +6235,18 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="16">
       <c r="A2" s="1" t="s">
@@ -6945,12 +7004,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>702</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1" t="s">
@@ -6977,107 +7036,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV54"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="BV4" sqref="BV4"/>
+      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:74" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Z1" s="23" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Z1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AE1" s="23">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AE1" s="24">
         <v>86</v>
       </c>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23">
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24">
         <v>86</v>
       </c>
-      <c r="AH1" s="23"/>
-      <c r="AJ1" s="23" t="s">
+      <c r="AH1" s="24"/>
+      <c r="AJ1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AO1" s="23" t="s">
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AO1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AT1" s="23" t="s">
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AT1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AY1" s="23" t="s">
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AY1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BD1" s="23" t="s">
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BD1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BI1" s="23" t="s">
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BI1" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
-      <c r="BN1" s="23" t="s">
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
+      <c r="BN1" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="23"/>
-      <c r="BS1" s="24" t="s">
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24"/>
+      <c r="BS1" s="25" t="s">
         <v>721</v>
       </c>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="24"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
     </row>
     <row r="2" spans="1:74" ht="15">
       <c r="A2" s="1" t="s">
@@ -7829,12 +7888,10 @@
       <c r="S14" s="5">
         <v>1</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1" t="s">
-        <v>4</v>
+      <c r="W14" s="11" t="s">
+        <v>773</v>
       </c>
       <c r="X14" s="1">
         <v>1</v>
@@ -7856,10 +7913,11 @@
         <v>2</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>313</v>
+        <v>4</v>
       </c>
       <c r="X15" s="1">
         <v>1</v>
@@ -7886,13 +7944,13 @@
         <v>1</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>503</v>
+        <v>312</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>507</v>
+        <v>313</v>
       </c>
       <c r="X16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>245</v>
@@ -7911,13 +7969,13 @@
         <v>1</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>658</v>
+        <v>503</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>659</v>
+        <v>507</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="s">
         <v>320</v>
@@ -7937,6 +7995,15 @@
       </c>
       <c r="S18" s="5">
         <v>2</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1</v>
       </c>
       <c r="AE18" t="s">
         <v>337</v>
@@ -8346,40 +8413,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" ht="15">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9288,7 +9355,7 @@
         <v>33</v>
       </c>
       <c r="N32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15">
@@ -9704,7 +9771,7 @@
         <v>42</v>
       </c>
       <c r="I47" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>707</v>
@@ -10079,7 +10146,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>438</v>
@@ -10108,15 +10175,13 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15">
-      <c r="A68" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>27</v>
+      <c r="C68" s="11" t="s">
+        <v>773</v>
       </c>
       <c r="D68" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>537</v>
@@ -10129,13 +10194,15 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>613</v>
@@ -10154,7 +10221,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>620</v>
@@ -10167,10 +10234,10 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>622</v>
@@ -10183,13 +10250,15 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D72" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>645</v>
@@ -10199,15 +10268,13 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15">
-      <c r="A73" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>604</v>
@@ -10220,7 +10287,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -10233,13 +10300,15 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>652</v>
@@ -10252,15 +10321,13 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
-      <c r="A76" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>645</v>
@@ -10273,10 +10340,10 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>604</v>
@@ -10289,7 +10356,7 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -10302,10 +10369,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -10321,11 +10386,14 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15">
+      <c r="A80" t="s">
+        <v>176</v>
+      </c>
       <c r="C80" s="1" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>678</v>
@@ -10339,13 +10407,13 @@
     </row>
     <row r="81" spans="1:9" ht="15">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D81" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F81" t="s">
         <v>707</v>
@@ -10358,14 +10426,11 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15">
-      <c r="A82" t="s">
-        <v>211</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D82" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>725</v>
@@ -10376,82 +10441,85 @@
     </row>
     <row r="83" spans="1:9" ht="15">
       <c r="C83" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15">
       <c r="C84" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D84" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15">
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15">
+      <c r="A86" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D86" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15">
-      <c r="C86" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-    </row>
     <row r="87" spans="1:9" ht="15">
-      <c r="A87" t="s">
-        <v>267</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D87" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15">
       <c r="C88" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D88" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="C89" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="D89" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15">
       <c r="C90" s="1" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="D90" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15">
+      <c r="A91" t="s">
+        <v>309</v>
+      </c>
       <c r="C91" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15">
       <c r="A92" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>270</v>
@@ -10462,10 +10530,10 @@
     </row>
     <row r="93" spans="1:9" ht="15">
       <c r="A93" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -10473,29 +10541,29 @@
     </row>
     <row r="94" spans="1:9" ht="15">
       <c r="A94" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15">
       <c r="A95" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15">
       <c r="A96" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>280</v>
@@ -10505,108 +10573,105 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="15">
-      <c r="A97" t="s">
-        <v>321</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15">
+      <c r="A98" t="s">
+        <v>326</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>271</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
-      <c r="A99" t="s">
-        <v>326</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="D99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15">
       <c r="C100" s="1" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="D100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15">
       <c r="C101" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D101" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
-      <c r="C102" s="1" t="s">
-        <v>280</v>
+      <c r="C102" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="D102" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15">
       <c r="C103" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15">
       <c r="C104" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D104" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
-      <c r="C105" s="11" t="s">
-        <v>329</v>
+      <c r="A105" t="s">
+        <v>336</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15">
-      <c r="A106" t="s">
-        <v>336</v>
-      </c>
       <c r="C106" s="16" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15">
+      <c r="A107" t="s">
+        <v>342</v>
+      </c>
       <c r="C107" s="16" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15">
-      <c r="A108" t="s">
-        <v>342</v>
-      </c>
       <c r="C108" s="16" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -10614,7 +10679,7 @@
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="C109" s="16" t="s">
-        <v>349</v>
+        <v>453</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
@@ -10624,10 +10689,10 @@
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110" s="16" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D110" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110"/>
       <c r="F110"/>
@@ -10636,49 +10701,52 @@
       <c r="I110"/>
     </row>
     <row r="111" spans="1:9" ht="15">
-      <c r="C111" s="16" t="s">
-        <v>458</v>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="11" t="s">
+        <v>528</v>
       </c>
       <c r="D111" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E111" s="17"/>
     </row>
     <row r="112" spans="1:9" ht="15">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="11" t="s">
-        <v>528</v>
+      <c r="A112" t="s">
+        <v>478</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>479</v>
       </c>
       <c r="D112" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15">
-      <c r="A113" t="s">
-        <v>478</v>
-      </c>
       <c r="C113" s="16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D113" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15">
+      <c r="A114" t="s">
+        <v>488</v>
+      </c>
       <c r="C114" s="16" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D114" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15">
       <c r="A115" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -10686,24 +10754,21 @@
     </row>
     <row r="116" spans="1:9" ht="15">
       <c r="A116" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="D116" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15">
-      <c r="A117" t="s">
-        <v>537</v>
-      </c>
       <c r="C117" s="16" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
@@ -10712,37 +10777,37 @@
     </row>
     <row r="118" spans="1:9" ht="15">
       <c r="C118" s="16" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D118" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15">
+      <c r="A119" t="s">
+        <v>613</v>
+      </c>
       <c r="C119" s="16" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="D119" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15">
       <c r="A120" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15">
-      <c r="A121" t="s">
-        <v>622</v>
-      </c>
       <c r="C121" s="16" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -10750,189 +10815,187 @@
     </row>
     <row r="122" spans="1:9" ht="15">
       <c r="C122" s="16" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15">
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="19" customFormat="1" ht="15">
+      <c r="A124" t="s">
+        <v>652</v>
+      </c>
+      <c r="B124"/>
+      <c r="C124" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15">
+      <c r="C125" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15">
+      <c r="C126" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="D123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="19" customFormat="1" ht="15">
-      <c r="C124" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="D124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15">
-      <c r="A125" t="s">
-        <v>652</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="D125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15">
-      <c r="C126" s="11" t="s">
-        <v>641</v>
-      </c>
       <c r="D126" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15">
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="16" t="s">
-        <v>647</v>
+        <v>700</v>
       </c>
       <c r="D127" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="19" customFormat="1" ht="15">
+      <c r="A128" t="s">
+        <v>658</v>
+      </c>
+      <c r="B128"/>
       <c r="C128" s="16" t="s">
-        <v>700</v>
+        <v>663</v>
       </c>
       <c r="D128" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="D129" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
-      <c r="A130" t="s">
-        <v>678</v>
-      </c>
       <c r="C130" s="16" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15">
+      <c r="A131" t="s">
+        <v>707</v>
+      </c>
       <c r="C131" s="16" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15">
-      <c r="A132" t="s">
-        <v>707</v>
-      </c>
       <c r="C132" s="16" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="D132" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15">
       <c r="C133" s="16" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D133" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15">
       <c r="C134" s="16" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D134" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15">
       <c r="C135" s="16" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="D135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15">
       <c r="C136" s="16" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15">
       <c r="C137" s="16" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D137" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15">
-      <c r="C138" s="16" t="s">
-        <v>743</v>
+      <c r="C138" s="11" t="s">
+        <v>745</v>
       </c>
       <c r="D138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15">
+      <c r="C139" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="D139" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15">
-      <c r="C139" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="D139" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15">
       <c r="C140" s="16" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D140" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15">
       <c r="C141" s="16" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="D141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15">
       <c r="C142" s="16" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="D142" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15">
-      <c r="C143" s="16" t="s">
-        <v>763</v>
-      </c>
-      <c r="D143" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10950,12 +11013,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD100"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="X36" sqref="X36"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -10964,42 +11027,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Z1" s="23" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Z1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
     </row>
     <row r="2" spans="1:30" ht="15">
       <c r="A2" s="1" t="s">
@@ -12175,14 +12238,14 @@
     </row>
     <row r="22" spans="1:29" ht="15">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>506</v>
@@ -12233,15 +12296,13 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>23</v>
@@ -12279,13 +12340,14 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>461</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>26</v>
@@ -12323,13 +12385,13 @@
     </row>
     <row r="25" spans="1:29" ht="15">
       <c r="A25" s="1" t="s">
-        <v>344</v>
+        <v>506</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -12365,13 +12427,13 @@
     </row>
     <row r="26" spans="1:29" ht="15">
       <c r="A26" s="1" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="D26" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -12408,14 +12470,11 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15">
-      <c r="A27" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -12450,11 +12509,11 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="15">
-      <c r="C28" s="1" t="s">
-        <v>556</v>
+      <c r="C28" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="D28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>29</v>
@@ -12485,7 +12544,7 @@
     </row>
     <row r="29" spans="1:29" ht="15">
       <c r="C29" s="11" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -12520,7 +12579,7 @@
     </row>
     <row r="30" spans="1:29" ht="15">
       <c r="C30" s="11" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
@@ -12553,12 +12612,6 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15">
-      <c r="C31" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
       <c r="K31" s="1" t="s">
         <v>30</v>
       </c>
@@ -13464,73 +13517,77 @@
       </c>
     </row>
     <row r="82" spans="16:19" ht="15">
-      <c r="P82" t="s">
+      <c r="P82" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="S82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="16:19" ht="15">
+      <c r="P83" t="s">
         <v>506</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="R83" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="S82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="16:19" ht="15">
-      <c r="R83" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="S83" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="16:19" ht="15">
       <c r="R84" s="1" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="S84" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="16:19" ht="15">
       <c r="R85" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S85" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="16:19" ht="15">
+      <c r="R86" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="S85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="16:19" ht="15">
-      <c r="P86" t="s">
-        <v>514</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="S86" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="16:19" ht="15">
       <c r="P87" t="s">
+        <v>514</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="S87" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="16:19" ht="15">
+      <c r="P88" t="s">
         <v>537</v>
       </c>
-      <c r="R87" s="1" t="s">
+      <c r="R88" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="S87" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="16:19" ht="15">
-      <c r="R88" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="S88" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="16:19" ht="15">
       <c r="R89" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="S89" s="1">
         <v>2</v>
@@ -13538,15 +13595,15 @@
     </row>
     <row r="90" spans="16:19" ht="15">
       <c r="R90" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="16:19" ht="15">
       <c r="R91" s="1" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="S91" s="1">
         <v>1</v>
@@ -13554,7 +13611,7 @@
     </row>
     <row r="92" spans="16:19" ht="15">
       <c r="R92" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S92" s="1">
         <v>1</v>
@@ -13562,7 +13619,7 @@
     </row>
     <row r="93" spans="16:19" ht="15">
       <c r="R93" s="1" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="S93" s="1">
         <v>1</v>
@@ -13570,72 +13627,80 @@
     </row>
     <row r="94" spans="16:19" ht="15">
       <c r="R94" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="S94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="16:19" ht="15">
+      <c r="R95" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="S94" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="16:19" ht="15">
-      <c r="P95" t="s">
+      <c r="S95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="16:19" ht="15">
+      <c r="P96" t="s">
         <v>613</v>
       </c>
-      <c r="R95" s="1" t="s">
+      <c r="R96" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="S95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="16:19" ht="15">
-      <c r="R96" s="1" t="s">
+      <c r="S96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="16:19" ht="15">
+      <c r="R97" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="S96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="16:19" ht="15">
-      <c r="P97" t="s">
-        <v>622</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="S97" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="16:19" ht="15">
       <c r="P98" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="R98" s="1" t="s">
         <v>643</v>
       </c>
       <c r="S98" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="16:19" ht="15">
       <c r="P99" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="R99" s="1" t="s">
         <v>643</v>
       </c>
       <c r="S99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="16:19" ht="15">
       <c r="P100" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="R100" s="1" t="s">
         <v>643</v>
       </c>
       <c r="S100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="16:19" ht="15">
+      <c r="P101" t="s">
+        <v>667</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="S101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -13655,11 +13720,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM93"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -13670,55 +13735,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
       <c r="Y1" s="9"/>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AE1" s="23" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AE1" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AJ1" s="23" t="s">
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AJ1" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
     </row>
     <row r="2" spans="1:39" ht="15">
       <c r="A2" s="1" t="s">
@@ -14296,7 +14361,7 @@
         <v>78</v>
       </c>
       <c r="S12" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
         <v>315</v>
@@ -14977,7 +15042,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>29</v>
@@ -15001,11 +15066,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="11" t="s">
+        <v>773</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -15030,11 +15094,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15">
-      <c r="C33" s="1" t="s">
-        <v>4</v>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="11" t="s">
+        <v>774</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>600</v>
@@ -15057,10 +15123,10 @@
     </row>
     <row r="34" spans="1:14" ht="15">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -15086,10 +15152,10 @@
     </row>
     <row r="35" spans="1:14" ht="15">
       <c r="C35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -15111,14 +15177,14 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15">
-      <c r="A36" t="s">
-        <v>176</v>
+      <c r="A36" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>46</v>
@@ -15140,14 +15206,11 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15">
-      <c r="A37" t="s">
-        <v>211</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>32</v>
@@ -15169,6 +15232,9 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>166</v>
       </c>
@@ -15197,11 +15263,14 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15">
-      <c r="C39" s="11" t="s">
-        <v>212</v>
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -15221,14 +15290,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15">
-      <c r="A40" t="s">
-        <v>267</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -15248,11 +15314,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="15">
-      <c r="C41" s="1" t="s">
-        <v>280</v>
+      <c r="C41" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="D41" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -15272,21 +15338,24 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15">
-      <c r="C42" s="11" t="s">
-        <v>257</v>
+      <c r="A42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>36</v>
+        <v>782</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>26</v>
@@ -15300,22 +15369,21 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15">
-      <c r="A43" t="s">
-        <v>291</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="I43" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -15327,21 +15395,16 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15">
-      <c r="A44" t="s">
-        <v>300</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>271</v>
+      <c r="C44" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
@@ -15359,7 +15422,7 @@
     </row>
     <row r="45" spans="1:14" ht="15">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>280</v>
@@ -15370,10 +15433,10 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -15386,21 +15449,22 @@
     </row>
     <row r="46" spans="1:14" ht="15">
       <c r="A46" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
       <c r="H46" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -15412,20 +15476,20 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15">
+      <c r="A47" t="s">
+        <v>301</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -15437,17 +15501,20 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15">
+      <c r="A48" t="s">
+        <v>321</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>225</v>
@@ -15461,17 +15528,17 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15">
-      <c r="A49" t="s">
-        <v>336</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
       </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
       <c r="H49" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
@@ -15487,16 +15554,16 @@
     </row>
     <row r="50" spans="1:14" ht="15">
       <c r="C50" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -15514,22 +15581,22 @@
     </row>
     <row r="51" spans="1:14" ht="15">
       <c r="A51" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -15542,19 +15609,19 @@
     </row>
     <row r="52" spans="1:14" ht="15">
       <c r="C52" s="1" t="s">
-        <v>452</v>
+        <v>271</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="I52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>598</v>
@@ -15568,22 +15635,20 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="11" t="s">
-        <v>529</v>
+      <c r="A53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="F53" t="s">
-        <v>211</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="I53" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -15595,20 +15660,17 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="15">
-      <c r="A54" t="s">
-        <v>488</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="I54" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>32</v>
@@ -15622,20 +15684,22 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15">
-      <c r="A55" t="s">
-        <v>514</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>515</v>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="11" t="s">
+        <v>529</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>267</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="I55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -15648,19 +15712,16 @@
     </row>
     <row r="56" spans="1:14" ht="15">
       <c r="A56" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="D56" s="1">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I56" s="1">
         <v>3</v>
@@ -15677,17 +15738,20 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15">
-      <c r="C57" s="11" t="s">
-        <v>564</v>
+      <c r="A57" t="s">
+        <v>514</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I57" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -15700,19 +15764,22 @@
     </row>
     <row r="58" spans="1:14" ht="15">
       <c r="A58" t="s">
-        <v>613</v>
+        <v>537</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>301</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>276</v>
       </c>
       <c r="I58" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -15724,20 +15791,17 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15">
-      <c r="C59" s="1" t="s">
-        <v>619</v>
+      <c r="C59" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>36</v>
@@ -15747,21 +15811,21 @@
         <v>40</v>
       </c>
       <c r="N59" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15">
       <c r="A60" t="s">
-        <v>622</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>636</v>
+        <v>613</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -15779,13 +15843,16 @@
     </row>
     <row r="61" spans="1:14" ht="15">
       <c r="C61" s="1" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
+      <c r="F61" t="s">
+        <v>308</v>
+      </c>
       <c r="H61" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I61" s="1">
         <v>1</v>
@@ -15801,19 +15868,19 @@
     </row>
     <row r="62" spans="1:14" ht="15">
       <c r="A62" t="s">
-        <v>652</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>636</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
@@ -15828,17 +15895,17 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15">
-      <c r="C63" s="11" t="s">
-        <v>636</v>
+      <c r="C63" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="I63" s="1">
         <v>1</v>
@@ -15853,17 +15920,17 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="15">
+      <c r="A64" t="s">
+        <v>652</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
-        <v>321</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>278</v>
+      <c r="H64" s="11" t="s">
+        <v>322</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
@@ -15879,20 +15946,17 @@
       </c>
     </row>
     <row r="65" spans="1:25" ht="15">
-      <c r="A65" t="s">
-        <v>667</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>627</v>
+      <c r="C65" s="11" t="s">
+        <v>636</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>322</v>
+      <c r="H65" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="I65" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K65" t="s">
         <v>344</v>
@@ -15905,17 +15969,14 @@
       </c>
     </row>
     <row r="66" spans="1:25" ht="15">
-      <c r="A66" t="s">
-        <v>670</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="I66" s="1">
         <v>3</v>
@@ -15928,17 +15989,20 @@
       </c>
     </row>
     <row r="67" spans="1:25" ht="15">
+      <c r="A67" t="s">
+        <v>667</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>699</v>
+        <v>627</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I67" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>459</v>
@@ -15949,19 +16013,22 @@
     </row>
     <row r="68" spans="1:25" ht="15">
       <c r="A68" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="D68" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>326</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" t="s">
         <v>478</v>
@@ -15975,19 +16042,16 @@
     </row>
     <row r="69" spans="1:25" ht="15">
       <c r="C69" s="1" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="F69" t="s">
-        <v>326</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>276</v>
+      <c r="H69" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="I69" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" t="s">
         <v>514</v>
@@ -16000,17 +16064,20 @@
       </c>
     </row>
     <row r="70" spans="1:25" ht="15">
-      <c r="C70" s="11" t="s">
-        <v>722</v>
+      <c r="A70" t="s">
+        <v>711</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="D70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" t="s">
         <v>613</v>
@@ -16024,16 +16091,16 @@
     </row>
     <row r="71" spans="1:25" ht="15">
       <c r="C71" s="1" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D71" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" t="s">
         <v>622</v>
@@ -16046,17 +16113,20 @@
       </c>
     </row>
     <row r="72" spans="1:25" ht="15">
-      <c r="C72" s="1" t="s">
-        <v>729</v>
+      <c r="C72" s="11" t="s">
+        <v>722</v>
       </c>
       <c r="D72" s="1">
         <v>2</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>333</v>
+      <c r="F72" t="s">
+        <v>336</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="I72" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72" s="11" t="s">
         <v>641</v>
@@ -16068,21 +16138,19 @@
     <row r="73" spans="1:25" s="17" customFormat="1" ht="15">
       <c r="A73"/>
       <c r="B73"/>
-      <c r="C73" s="11" t="s">
-        <v>733</v>
+      <c r="C73" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>336</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F73"/>
       <c r="G73"/>
       <c r="H73" s="16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I73" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>651</v>
@@ -16095,19 +16163,23 @@
       <c r="Y73" s="10"/>
     </row>
     <row r="74" spans="1:25" s="17" customFormat="1" ht="15">
+      <c r="A74"/>
+      <c r="B74"/>
       <c r="C74" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="D74" s="1">
-        <v>3</v>
-      </c>
-      <c r="F74"/>
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>344</v>
+      </c>
       <c r="G74"/>
       <c r="H74" s="16" t="s">
-        <v>278</v>
+        <v>451</v>
       </c>
       <c r="I74" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K74" s="17" t="s">
         <v>652</v>
@@ -16123,22 +16195,19 @@
       <c r="Y74" s="10"/>
     </row>
     <row r="75" spans="1:25" ht="15">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="1" t="s">
-        <v>740</v>
+      <c r="C75" s="11" t="s">
+        <v>733</v>
       </c>
       <c r="D75" s="1">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s">
-        <v>344</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>451</v>
+        <v>1</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="11" t="s">
+        <v>526</v>
       </c>
       <c r="I75" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75" s="11" t="s">
         <v>641</v>
@@ -16148,16 +16217,18 @@
       </c>
     </row>
     <row r="76" spans="1:25" ht="15">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="1" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="D76" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="11" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I76" s="1">
         <v>2</v>
@@ -16170,60 +16241,75 @@
       </c>
     </row>
     <row r="77" spans="1:25" ht="15">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>478</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="15">
+      <c r="C78" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>537</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="15">
+      <c r="C79" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D77" s="1">
-        <v>3</v>
-      </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="I77" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="15">
-      <c r="C78" s="11" t="s">
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="15">
+      <c r="C80" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>478</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="I78" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" ht="15">
-      <c r="F79" t="s">
-        <v>537</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="I79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" ht="15">
-      <c r="H80" s="11" t="s">
-        <v>597</v>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>622</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>625</v>
       </c>
       <c r="I80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="6:9" ht="15">
       <c r="F81" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="H81" s="16" t="s">
         <v>625</v>
@@ -16233,107 +16319,96 @@
       </c>
     </row>
     <row r="82" spans="6:9" ht="15">
-      <c r="F82" t="s">
-        <v>652</v>
+      <c r="F82" s="19" t="s">
+        <v>669</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>625</v>
+        <v>684</v>
       </c>
       <c r="I82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="6:9" ht="15">
-      <c r="F83" s="19" t="s">
-        <v>669</v>
+      <c r="F83" t="s">
+        <v>711</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="I83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="6:9" ht="15">
-      <c r="F84" t="s">
-        <v>711</v>
-      </c>
       <c r="H84" s="16" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="I84" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="6:9" ht="15">
       <c r="H85" s="16" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="6:9" ht="15">
-      <c r="H86" s="16" t="s">
-        <v>718</v>
+      <c r="H86" s="11" t="s">
+        <v>722</v>
       </c>
       <c r="I86" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="6:9" ht="15">
-      <c r="H87" s="11" t="s">
-        <v>722</v>
+      <c r="H87" s="16" t="s">
+        <v>736</v>
       </c>
       <c r="I87" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="6:9" ht="15">
       <c r="H88" s="16" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="I88" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="6:9" ht="15">
-      <c r="H89" s="16" t="s">
-        <v>741</v>
+      <c r="H89" s="11" t="s">
+        <v>744</v>
       </c>
       <c r="I89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="6:9" ht="15">
-      <c r="H90" s="11" t="s">
-        <v>744</v>
+      <c r="H90" s="16" t="s">
+        <v>753</v>
       </c>
       <c r="I90" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="6:9" ht="15">
       <c r="H91" s="16" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="I91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="6:9" ht="15">
-      <c r="H92" s="16" t="s">
-        <v>758</v>
+      <c r="H92" s="11" t="s">
+        <v>761</v>
       </c>
       <c r="I92" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="6:9" ht="15">
-      <c r="H93" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="I93" s="1">
         <v>3</v>
       </c>
     </row>
@@ -16357,66 +16432,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="S1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Z1" s="23" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Z1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AC1" s="23"/>
-      <c r="AE1" s="23" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AE1" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AJ1" s="23" t="s">
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AJ1" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
     </row>
     <row r="2" spans="1:39" ht="15">
       <c r="A2" s="1" t="s">
@@ -16697,6 +16772,15 @@
         <v>607</v>
       </c>
       <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>766</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>767</v>
+      </c>
+      <c r="AM5">
         <v>1</v>
       </c>
     </row>
@@ -17045,7 +17129,7 @@
         <v>249</v>
       </c>
       <c r="AC11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="15">
@@ -17317,7 +17401,7 @@
         <v>73</v>
       </c>
       <c r="I17" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -17364,7 +17448,7 @@
         <v>87</v>
       </c>
       <c r="I18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>225</v>
@@ -17428,6 +17512,18 @@
       <c r="X19" s="1">
         <v>1</v>
       </c>
+      <c r="Z19" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>767</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:29" ht="15">
       <c r="A20" s="1"/>
@@ -17463,6 +17559,15 @@
       <c r="X20" s="1">
         <v>1</v>
       </c>
+      <c r="Z20" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:29" ht="15">
       <c r="A21" s="1" t="s">
@@ -17499,6 +17604,12 @@
       <c r="X21" s="9">
         <v>1</v>
       </c>
+      <c r="AB21" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:29" ht="15">
       <c r="A22" s="1" t="s">
@@ -17540,6 +17651,12 @@
       <c r="X22" s="9">
         <v>1</v>
       </c>
+      <c r="AB22" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:29" ht="15">
       <c r="A23" s="1" t="s">
@@ -17569,7 +17686,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W23" s="9" t="s">
         <v>248</v>
@@ -17598,7 +17715,9 @@
       <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
         <v>58</v>
@@ -17632,12 +17751,10 @@
       <c r="I25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
@@ -17662,10 +17779,11 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="M26" s="1" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
@@ -17699,14 +17817,11 @@
       <c r="I27" s="1">
         <v>6</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W27" s="9" t="s">
         <v>665</v>
@@ -17734,11 +17849,14 @@
       <c r="I28" s="1">
         <v>3</v>
       </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
       <c r="M28" s="1" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="N28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U28" t="s">
         <v>670</v>
@@ -17766,8 +17884,8 @@
       <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" t="s">
-        <v>229</v>
+      <c r="K29" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>249</v>
@@ -17802,13 +17920,13 @@
         <v>3</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W30" s="9" t="s">
         <v>714</v>
@@ -17834,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
@@ -17868,11 +17986,8 @@
       <c r="I32" s="1">
         <v>3</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="M32" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
@@ -17894,8 +18009,11 @@
       <c r="I33" s="1">
         <v>1</v>
       </c>
+      <c r="K33" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="M33" s="1" t="s">
-        <v>249</v>
+        <v>469</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -17918,10 +18036,10 @@
         <v>2</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>344</v>
+        <v>482</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -17941,10 +18059,10 @@
         <v>2</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
@@ -17961,10 +18079,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>516</v>
+        <v>622</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>517</v>
+        <v>649</v>
       </c>
       <c r="N36" s="1">
         <v>1</v>
@@ -17981,13 +18099,13 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>649</v>
       </c>
       <c r="N37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="6:24" ht="15">
@@ -17996,15 +18114,6 @@
       </c>
       <c r="I38" s="1">
         <v>1</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="N38" s="1">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -18025,58 +18134,58 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH38"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:34" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="U1" s="23" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Z1" s="23" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Z1" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AE1" s="23" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AE1" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
     </row>
     <row r="2" spans="1:34" ht="15">
       <c r="A2" s="1" t="s">
@@ -18447,14 +18556,14 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="N9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="15">
@@ -18476,12 +18585,10 @@
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -18509,10 +18616,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15">
@@ -18536,10 +18643,11 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="K12" t="s">
+        <v>178</v>
+      </c>
       <c r="M12" s="1" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="N12" s="1">
         <v>2</v>
@@ -18564,14 +18672,14 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
-        <v>178</v>
+      <c r="K13" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="N13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15">
@@ -18594,13 +18702,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="15">
@@ -18624,14 +18732,11 @@
       <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="N15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="15">
@@ -18653,8 +18758,11 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
+      <c r="K16" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="N16" s="1">
         <v>5</v>
@@ -18681,11 +18789,8 @@
       <c r="I17" s="1">
         <v>6</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="N17" s="1">
         <v>5</v>
@@ -18712,11 +18817,14 @@
       <c r="I18" s="1">
         <v>6</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="M18" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="N18" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15">
@@ -18741,10 +18849,10 @@
         <v>2</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -18762,20 +18870,19 @@
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>308</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="I20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -18793,7 +18900,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>314</v>
@@ -18802,13 +18909,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15">
@@ -18823,19 +18930,16 @@
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>314</v>
+        <v>496</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="N22" s="1">
         <v>3</v>
@@ -18853,19 +18957,22 @@
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="N23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15">
@@ -18879,23 +18986,17 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="I24" s="1">
-        <v>3</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15">
@@ -18909,17 +19010,22 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="I25" s="1">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="1" t="s">
-        <v>239</v>
+        <v>779</v>
       </c>
       <c r="N25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15">
@@ -18934,13 +19040,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="I26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>342</v>
@@ -18962,11 +19068,8 @@
       <c r="D27" s="1">
         <v>7</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -18991,11 +19094,14 @@
       <c r="D28" s="1">
         <v>6</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>658</v>
@@ -19018,7 +19124,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>624</v>
@@ -19046,15 +19152,6 @@
       <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
-      </c>
       <c r="K30" s="1" t="s">
         <v>670</v>
       </c>
@@ -19198,6 +19295,46 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
+      <c r="K38" t="s">
+        <v>770</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15">
+      <c r="M39" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15">
+      <c r="M40" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15">
+      <c r="K41" t="s">
+        <v>778</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15">
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -19216,52 +19353,52 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Z1" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
     </row>
     <row r="2" spans="1:29" ht="15">
       <c r="A2" s="1" t="s">
@@ -20445,6 +20582,17 @@
         <v>759</v>
       </c>
       <c r="I60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" ht="15">
+      <c r="F61" t="s">
+        <v>780</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="I61" s="1">
         <v>1</v>
       </c>
     </row>
@@ -20466,38 +20614,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="1" t="s">
@@ -21647,30 +21795,30 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="1" t="s">

--- a/2018年前发货表.xlsx
+++ b/2018年前发货表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="食用说明" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="801">
   <si>
     <t>花花</t>
   </si>
@@ -2997,6 +2997,70 @@
   </si>
   <si>
     <t>敬人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花冠1&amp;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-12生日吧唧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗森大挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一些备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国服秋季吧唧没收肾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星挂第六弹没收肾，第五六弹都没收国际</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3480,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3804,6 +3868,21 @@
       </c>
       <c r="N17" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -3821,9 +3900,9 @@
   <dimension ref="A1:AC80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5731,6 +5810,15 @@
       <c r="I46" s="9">
         <v>1</v>
       </c>
+      <c r="P46" t="s">
+        <v>790</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="S46" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:29" ht="15">
       <c r="A47" s="1" t="s">
@@ -5751,6 +5839,12 @@
       </c>
       <c r="I47" s="9">
         <v>1</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="S47" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="15">
@@ -7034,12 +7128,12 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV54"/>
+  <dimension ref="A1:BV56"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
+      <selection pane="bottomLeft" activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -7539,6 +7633,15 @@
       <c r="X5" s="1">
         <v>1</v>
       </c>
+      <c r="Z5" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>788</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1" t="s">
@@ -7604,6 +7707,12 @@
       </c>
       <c r="X6" s="1">
         <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>792</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>20</v>
@@ -8026,6 +8135,15 @@
       <c r="S19" s="3">
         <v>1</v>
       </c>
+      <c r="U19" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="X19" s="1">
+        <v>2</v>
+      </c>
       <c r="AG19" s="1" t="s">
         <v>245</v>
       </c>
@@ -8385,6 +8503,25 @@
       </c>
       <c r="S54" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="16:19" ht="15">
+      <c r="P55" t="s">
+        <v>790</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="S55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="16:19" ht="15">
+      <c r="R56" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8417,7 +8554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9811,7 +9948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:14" ht="15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -9829,8 +9966,17 @@
       <c r="I49" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="15">
+      <c r="K49" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="N49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15">
       <c r="A50" s="1" t="s">
         <v>225</v>
       </c>
@@ -9848,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:14" ht="15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
@@ -9867,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:14" ht="15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
@@ -9886,7 +10032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:14" ht="15">
       <c r="A53" s="1" t="s">
         <v>600</v>
       </c>
@@ -9907,7 +10053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:14" ht="15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
@@ -9926,7 +10072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:14" ht="15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
@@ -9945,7 +10091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:14" ht="15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
@@ -9965,7 +10111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:14" ht="15">
       <c r="A57" s="1" t="s">
         <v>598</v>
       </c>
@@ -9986,7 +10132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:14" ht="15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
@@ -10005,7 +10151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:14" ht="15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -10024,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:14" ht="15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
@@ -10043,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:14" ht="15">
       <c r="A61" s="1" t="s">
         <v>32</v>
       </c>
@@ -10064,7 +10210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:14" ht="15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
@@ -10080,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:14" ht="15">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -10101,7 +10247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:14" ht="15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
@@ -11013,12 +11159,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD101"/>
+  <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -11089,10 +11235,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>1</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -11151,10 +11297,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
       <c r="P3" s="1"/>
@@ -11209,10 +11355,10 @@
         <v>6</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -11269,10 +11415,10 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -11331,10 +11477,10 @@
         <v>7</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -11391,10 +11537,10 @@
         <v>13</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -11451,10 +11597,10 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>1</v>
       </c>
       <c r="P8" s="1"/>
@@ -11510,10 +11656,10 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="M9" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="N9" s="2">
         <v>1</v>
       </c>
       <c r="P9" s="1"/>
@@ -11567,14 +11713,12 @@
       <c r="I10" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="M10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="2">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -11630,12 +11774,14 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="M11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="2">
         <v>1</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -11686,14 +11832,12 @@
       <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="M12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="2">
         <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -11741,12 +11885,14 @@
       <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="M13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="2">
         <v>1</v>
       </c>
       <c r="P13" s="1"/>
@@ -11801,10 +11947,10 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2">
         <v>1</v>
       </c>
       <c r="P14" s="1"/>
@@ -11859,10 +12005,10 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="M15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="2">
         <v>1</v>
       </c>
       <c r="P15" s="1"/>
@@ -11915,14 +12061,12 @@
       <c r="I16" s="1">
         <v>4</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="M16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="2">
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -11974,12 +12118,14 @@
       <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="M17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="2">
         <v>1</v>
       </c>
       <c r="P17" s="1"/>
@@ -12032,10 +12178,10 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="M18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="2">
         <v>1</v>
       </c>
       <c r="P18" s="1"/>
@@ -12084,14 +12230,12 @@
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="2">
         <v>1</v>
       </c>
       <c r="P19" s="1"/>
@@ -12139,13 +12283,13 @@
         <v>2</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="2">
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -12199,13 +12343,13 @@
         <v>2</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="2">
         <v>1</v>
       </c>
       <c r="P21" s="1"/>
@@ -12257,13 +12401,13 @@
         <v>3</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="M22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="2">
         <v>1</v>
       </c>
       <c r="P22" s="1"/>
@@ -12305,13 +12449,13 @@
         <v>4</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="2">
         <v>1</v>
       </c>
       <c r="P23" s="1"/>
@@ -12350,13 +12494,13 @@
         <v>2</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="M24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="2">
         <v>1</v>
       </c>
       <c r="P24" s="1"/>
@@ -12395,10 +12539,10 @@
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="M25" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="N25" s="9">
         <v>1</v>
       </c>
       <c r="P25" s="1"/>
@@ -12435,10 +12579,12 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
@@ -12479,7 +12625,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
@@ -12515,12 +12661,10 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
@@ -12552,7 +12696,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
@@ -12585,7 +12729,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
@@ -12612,12 +12756,10 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15">
-      <c r="K31" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
@@ -12642,7 +12784,7 @@
     </row>
     <row r="32" spans="1:29" ht="15">
       <c r="K32" s="1" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
@@ -12671,11 +12813,11 @@
     </row>
     <row r="33" spans="11:24" ht="15">
       <c r="K33" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -12701,13 +12843,15 @@
       </c>
     </row>
     <row r="34" spans="11:24" ht="15">
-      <c r="K34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
         <v>63</v>
       </c>
       <c r="N34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>26</v>
@@ -12731,11 +12875,11 @@
     </row>
     <row r="35" spans="11:24" ht="15">
       <c r="K35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
@@ -12764,10 +12908,10 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="N36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>225</v>
@@ -12781,10 +12925,12 @@
       </c>
     </row>
     <row r="37" spans="11:24" ht="15">
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N37" s="1">
         <v>1</v>
@@ -12799,12 +12945,10 @@
       </c>
     </row>
     <row r="38" spans="11:24" ht="15">
-      <c r="K38" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
@@ -12821,12 +12965,10 @@
       </c>
     </row>
     <row r="39" spans="11:24" ht="15">
-      <c r="K39" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="N39" s="1">
         <v>1</v>
@@ -12841,7 +12983,9 @@
       </c>
     </row>
     <row r="40" spans="11:24" ht="15">
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
         <v>63</v>
@@ -12859,10 +13003,12 @@
       </c>
     </row>
     <row r="41" spans="11:24" ht="15">
-      <c r="K41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N41" s="1">
         <v>1</v>
@@ -12882,7 +13028,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N42" s="1">
         <v>1</v>
@@ -12897,11 +13043,10 @@
       </c>
     </row>
     <row r="43" spans="11:24" ht="15">
-      <c r="K43" t="s">
-        <v>198</v>
-      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="N43" s="1">
         <v>1</v>
@@ -12916,8 +13061,10 @@
       </c>
     </row>
     <row r="44" spans="11:24" ht="15">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
@@ -12933,10 +13080,10 @@
     </row>
     <row r="45" spans="11:24" ht="15">
       <c r="K45" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
@@ -12952,7 +13099,7 @@
     </row>
     <row r="46" spans="11:24" ht="15">
       <c r="M46" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="N46" s="1">
         <v>1</v>
@@ -12970,10 +13117,10 @@
     </row>
     <row r="47" spans="11:24" ht="15">
       <c r="K47" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N47" s="1">
         <v>1</v>
@@ -12989,10 +13136,10 @@
     </row>
     <row r="48" spans="11:24" ht="15">
       <c r="M48" s="1" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="N48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>34</v>
@@ -13006,8 +13153,11 @@
       </c>
     </row>
     <row r="49" spans="11:19" ht="15">
-      <c r="M49" s="11" t="s">
-        <v>212</v>
+      <c r="K49" t="s">
+        <v>211</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="N49" s="1">
         <v>1</v>
@@ -13022,14 +13172,11 @@
       </c>
     </row>
     <row r="50" spans="11:19" ht="15">
-      <c r="K50" t="s">
-        <v>267</v>
-      </c>
       <c r="M50" s="1" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="N50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>36</v>
@@ -13043,11 +13190,11 @@
       </c>
     </row>
     <row r="51" spans="11:19" ht="15">
-      <c r="M51" s="1" t="s">
-        <v>244</v>
+      <c r="M51" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="N51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -13060,10 +13207,10 @@
     </row>
     <row r="52" spans="11:19" ht="15">
       <c r="K52" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="N52" s="1">
         <v>1</v>
@@ -13080,14 +13227,11 @@
       </c>
     </row>
     <row r="53" spans="11:19" ht="15">
-      <c r="K53" t="s">
-        <v>321</v>
-      </c>
       <c r="M53" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>38</v>
@@ -13102,10 +13246,10 @@
     </row>
     <row r="54" spans="11:19" ht="15">
       <c r="K54" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="N54" s="1">
         <v>1</v>
@@ -13120,6 +13264,9 @@
       </c>
     </row>
     <row r="55" spans="11:19" ht="15">
+      <c r="K55" t="s">
+        <v>321</v>
+      </c>
       <c r="M55" s="1" t="s">
         <v>244</v>
       </c>
@@ -13137,10 +13284,10 @@
     </row>
     <row r="56" spans="11:19" ht="15">
       <c r="K56" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="N56" s="1">
         <v>1</v>
@@ -13156,7 +13303,7 @@
     </row>
     <row r="57" spans="11:19" ht="15">
       <c r="M57" s="1" t="s">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="N57" s="1">
         <v>1</v>
@@ -13172,8 +13319,11 @@
       </c>
     </row>
     <row r="58" spans="11:19" ht="15">
+      <c r="K58" t="s">
+        <v>344</v>
+      </c>
       <c r="M58" s="1" t="s">
-        <v>449</v>
+        <v>345</v>
       </c>
       <c r="N58" s="1">
         <v>1</v>
@@ -13187,7 +13337,7 @@
     </row>
     <row r="59" spans="11:19" ht="15">
       <c r="M59" s="1" t="s">
-        <v>454</v>
+        <v>348</v>
       </c>
       <c r="N59" s="1">
         <v>1</v>
@@ -13203,11 +13353,8 @@
       </c>
     </row>
     <row r="60" spans="11:19" ht="15">
-      <c r="K60" t="s">
-        <v>506</v>
-      </c>
       <c r="M60" s="1" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="N60" s="1">
         <v>1</v>
@@ -13220,11 +13367,8 @@
       </c>
     </row>
     <row r="61" spans="11:19" ht="15">
-      <c r="K61" t="s">
-        <v>537</v>
-      </c>
       <c r="M61" s="1" t="s">
-        <v>538</v>
+        <v>454</v>
       </c>
       <c r="N61" s="1">
         <v>1</v>
@@ -13240,8 +13384,11 @@
       </c>
     </row>
     <row r="62" spans="11:19" ht="15">
+      <c r="K62" t="s">
+        <v>506</v>
+      </c>
       <c r="M62" s="1" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="N62" s="1">
         <v>1</v>
@@ -13254,8 +13401,11 @@
       </c>
     </row>
     <row r="63" spans="11:19" ht="15">
+      <c r="K63" t="s">
+        <v>537</v>
+      </c>
       <c r="M63" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N63" s="1">
         <v>1</v>
@@ -13269,7 +13419,7 @@
     </row>
     <row r="64" spans="11:19" ht="15">
       <c r="M64" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="N64" s="1">
         <v>1</v>
@@ -13283,7 +13433,7 @@
     </row>
     <row r="65" spans="11:19" ht="15">
       <c r="M65" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="N65" s="1">
         <v>1</v>
@@ -13296,11 +13446,11 @@
       </c>
     </row>
     <row r="66" spans="11:19" ht="15">
-      <c r="M66" s="11" t="s">
-        <v>568</v>
+      <c r="M66" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="N66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>259</v>
@@ -13311,7 +13461,7 @@
     </row>
     <row r="67" spans="11:19" ht="15">
       <c r="M67" s="1" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="N67" s="1">
         <v>1</v>
@@ -13327,11 +13477,11 @@
       </c>
     </row>
     <row r="68" spans="11:19" ht="15">
-      <c r="M68" s="1" t="s">
-        <v>585</v>
+      <c r="M68" s="11" t="s">
+        <v>568</v>
       </c>
       <c r="N68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>242</v>
@@ -13341,8 +13491,8 @@
       </c>
     </row>
     <row r="69" spans="11:19" ht="15">
-      <c r="M69" s="11" t="s">
-        <v>597</v>
+      <c r="M69" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="N69" s="1">
         <v>1</v>
@@ -13355,11 +13505,8 @@
       </c>
     </row>
     <row r="70" spans="11:19" ht="15">
-      <c r="K70" t="s">
-        <v>613</v>
-      </c>
       <c r="M70" s="1" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="N70" s="1">
         <v>1</v>
@@ -13372,8 +13519,8 @@
       </c>
     </row>
     <row r="71" spans="11:19" ht="15">
-      <c r="M71" s="1" t="s">
-        <v>619</v>
+      <c r="M71" s="11" t="s">
+        <v>597</v>
       </c>
       <c r="N71" s="1">
         <v>1</v>
@@ -13387,10 +13534,10 @@
     </row>
     <row r="72" spans="11:19" ht="15">
       <c r="K72" t="s">
-        <v>622</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>636</v>
+        <v>613</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="N72" s="1">
         <v>1</v>
@@ -13403,11 +13550,8 @@
       </c>
     </row>
     <row r="73" spans="11:19" ht="15">
-      <c r="K73" t="s">
-        <v>652</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>636</v>
+      <c r="M73" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="N73" s="1">
         <v>1</v>
@@ -13424,10 +13568,10 @@
     </row>
     <row r="74" spans="11:19" ht="15">
       <c r="K74" t="s">
-        <v>658</v>
-      </c>
-      <c r="M74" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>636</v>
       </c>
       <c r="N74" s="1">
         <v>1</v>
@@ -13444,10 +13588,10 @@
     </row>
     <row r="75" spans="11:19" ht="15">
       <c r="K75" t="s">
-        <v>670</v>
-      </c>
-      <c r="M75" t="s">
-        <v>692</v>
+        <v>652</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>636</v>
       </c>
       <c r="N75" s="1">
         <v>1</v>
@@ -13463,6 +13607,15 @@
       </c>
     </row>
     <row r="76" spans="11:19" ht="15">
+      <c r="K76" t="s">
+        <v>658</v>
+      </c>
+      <c r="M76" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
       <c r="R76" s="1" t="s">
         <v>244</v>
       </c>
@@ -13471,6 +13624,15 @@
       </c>
     </row>
     <row r="77" spans="11:19" ht="15">
+      <c r="K77" t="s">
+        <v>670</v>
+      </c>
+      <c r="M77" t="s">
+        <v>692</v>
+      </c>
+      <c r="N77" s="1">
+        <v>1</v>
+      </c>
       <c r="P77" t="s">
         <v>336</v>
       </c>
@@ -13482,6 +13644,15 @@
       </c>
     </row>
     <row r="78" spans="11:19" ht="15">
+      <c r="K78" t="s">
+        <v>787</v>
+      </c>
+      <c r="M78" t="s">
+        <v>788</v>
+      </c>
+      <c r="N78" s="1">
+        <v>1</v>
+      </c>
       <c r="R78" s="1" t="s">
         <v>244</v>
       </c>
@@ -13490,6 +13661,12 @@
       </c>
     </row>
     <row r="79" spans="11:19" ht="15">
+      <c r="M79" t="s">
+        <v>789</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
       <c r="P79" t="s">
         <v>344</v>
       </c>
@@ -13501,6 +13678,15 @@
       </c>
     </row>
     <row r="80" spans="11:19" ht="15">
+      <c r="K80" t="s">
+        <v>794</v>
+      </c>
+      <c r="M80" t="s">
+        <v>795</v>
+      </c>
+      <c r="N80" s="1">
+        <v>1</v>
+      </c>
       <c r="R80" s="1" t="s">
         <v>446</v>
       </c>
@@ -13508,7 +13694,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="16:19" ht="15">
+    <row r="81" spans="11:19" ht="15">
+      <c r="K81" t="s">
+        <v>790</v>
+      </c>
+      <c r="M81" t="s">
+        <v>788</v>
+      </c>
+      <c r="N81" s="1">
+        <v>1</v>
+      </c>
       <c r="R81" s="1" t="s">
         <v>449</v>
       </c>
@@ -13516,7 +13711,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="16:19" ht="15">
+    <row r="82" spans="11:19" ht="15">
+      <c r="M82" t="s">
+        <v>789</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
       <c r="P82" s="20" t="s">
         <v>783</v>
       </c>
@@ -13528,7 +13729,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="16:19" ht="15">
+    <row r="83" spans="11:19" ht="15">
+      <c r="M83" t="s">
+        <v>796</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
       <c r="P83" t="s">
         <v>506</v>
       </c>
@@ -13539,7 +13746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="16:19" ht="15">
+    <row r="84" spans="11:19" ht="15">
       <c r="R84" s="1" t="s">
         <v>508</v>
       </c>
@@ -13547,7 +13754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="16:19" ht="15">
+    <row r="85" spans="11:19" ht="15">
       <c r="R85" s="1" t="s">
         <v>477</v>
       </c>
@@ -13555,7 +13762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="16:19" ht="15">
+    <row r="86" spans="11:19" ht="15">
       <c r="R86" s="1" t="s">
         <v>511</v>
       </c>
@@ -13563,7 +13770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="16:19" ht="15">
+    <row r="87" spans="11:19" ht="15">
       <c r="P87" t="s">
         <v>514</v>
       </c>
@@ -13574,7 +13781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="16:19" ht="15">
+    <row r="88" spans="11:19" ht="15">
       <c r="P88" t="s">
         <v>537</v>
       </c>
@@ -13585,7 +13792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="16:19" ht="15">
+    <row r="89" spans="11:19" ht="15">
       <c r="R89" s="1" t="s">
         <v>554</v>
       </c>
@@ -13593,7 +13800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="16:19" ht="15">
+    <row r="90" spans="11:19" ht="15">
       <c r="R90" s="1" t="s">
         <v>557</v>
       </c>
@@ -13601,7 +13808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="16:19" ht="15">
+    <row r="91" spans="11:19" ht="15">
       <c r="R91" s="1" t="s">
         <v>558</v>
       </c>
@@ -13609,7 +13816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="16:19" ht="15">
+    <row r="92" spans="11:19" ht="15">
       <c r="R92" s="1" t="s">
         <v>573</v>
       </c>
@@ -13617,7 +13824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="16:19" ht="15">
+    <row r="93" spans="11:19" ht="15">
       <c r="R93" s="1" t="s">
         <v>574</v>
       </c>
@@ -13625,7 +13832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="16:19" ht="15">
+    <row r="94" spans="11:19" ht="15">
       <c r="R94" s="1" t="s">
         <v>594</v>
       </c>
@@ -13633,7 +13840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="16:19" ht="15">
+    <row r="95" spans="11:19" ht="15">
       <c r="R95" s="1" t="s">
         <v>595</v>
       </c>
@@ -13641,7 +13848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="16:19" ht="15">
+    <row r="96" spans="11:19" ht="15">
       <c r="P96" t="s">
         <v>613</v>
       </c>
@@ -13702,6 +13909,25 @@
       </c>
       <c r="S101" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="16:19" ht="15">
+      <c r="P102" t="s">
+        <v>790</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="S102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="16:19" ht="15">
+      <c r="R103" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="S103" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -13720,11 +13946,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM92"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -16307,7 +16533,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="6:9" ht="15">
+    <row r="81" spans="1:9" ht="15">
+      <c r="A81" t="s">
+        <v>790</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
       <c r="F81" t="s">
         <v>652</v>
       </c>
@@ -16318,7 +16553,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="6:9" ht="15">
+    <row r="82" spans="1:9" ht="15">
+      <c r="C82" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
       <c r="F82" s="19" t="s">
         <v>669</v>
       </c>
@@ -16329,7 +16570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="6:9" ht="15">
+    <row r="83" spans="1:9" ht="15">
       <c r="F83" t="s">
         <v>711</v>
       </c>
@@ -16340,7 +16581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="6:9" ht="15">
+    <row r="84" spans="1:9" ht="15">
       <c r="H84" s="16" t="s">
         <v>717</v>
       </c>
@@ -16348,7 +16589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="6:9" ht="15">
+    <row r="85" spans="1:9" ht="15">
       <c r="H85" s="16" t="s">
         <v>718</v>
       </c>
@@ -16356,7 +16597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="6:9" ht="15">
+    <row r="86" spans="1:9" ht="15">
       <c r="H86" s="11" t="s">
         <v>722</v>
       </c>
@@ -16364,7 +16605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="6:9" ht="15">
+    <row r="87" spans="1:9" ht="15">
       <c r="H87" s="16" t="s">
         <v>736</v>
       </c>
@@ -16372,7 +16613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="6:9" ht="15">
+    <row r="88" spans="1:9" ht="15">
       <c r="H88" s="16" t="s">
         <v>741</v>
       </c>
@@ -16380,7 +16621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="6:9" ht="15">
+    <row r="89" spans="1:9" ht="15">
       <c r="H89" s="11" t="s">
         <v>744</v>
       </c>
@@ -16388,7 +16629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="6:9" ht="15">
+    <row r="90" spans="1:9" ht="15">
       <c r="H90" s="16" t="s">
         <v>753</v>
       </c>
@@ -16396,7 +16637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="6:9" ht="15">
+    <row r="91" spans="1:9" ht="15">
       <c r="H91" s="16" t="s">
         <v>758</v>
       </c>
@@ -16404,12 +16645,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="6:9" ht="15">
+    <row r="92" spans="1:9" ht="15">
       <c r="H92" s="11" t="s">
         <v>761</v>
       </c>
       <c r="I92" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15">
+      <c r="F93" t="s">
+        <v>790</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="I93" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -18136,9 +18388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20:I20"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -19151,6 +19403,15 @@
       </c>
       <c r="D30" s="1">
         <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>670</v>
@@ -20612,11 +20873,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -21248,6 +21509,15 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="1" t="s">
@@ -21769,6 +22039,17 @@
       </c>
       <c r="I69" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" ht="15">
+      <c r="F70" t="s">
+        <v>790</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="I70" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/2018年前发货表.xlsx
+++ b/2018年前发货表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="食用说明" sheetId="13" r:id="rId1"/>
@@ -8553,7 +8553,7 @@
   <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
@@ -11161,7 +11161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="N84" sqref="N84"/>
@@ -13948,9 +13948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -18388,9 +18388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -22069,7 +22069,7 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>

--- a/2018年前发货表.xlsx
+++ b/2018年前发货表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="食用说明" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="805">
   <si>
     <t>花花</t>
   </si>
@@ -3061,6 +3061,22 @@
   </si>
   <si>
     <t>星挂第六弹没收肾，第五六弹都没收国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆夏目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆翠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆翠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3205,7 +3221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3223,6 +3239,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3553,44 +3570,44 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:9" ht="14" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="14" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="14" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -3911,42 +3928,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Z1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
     </row>
     <row r="2" spans="1:29" ht="15">
       <c r="A2" s="1" t="s">
@@ -6329,18 +6346,18 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16">
       <c r="A2" s="1" t="s">
@@ -7098,12 +7115,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1" t="s">
@@ -7139,98 +7156,98 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:74" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Z1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AE1" s="24">
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AE1" s="25">
         <v>86</v>
       </c>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24">
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25">
         <v>86</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AJ1" s="24" t="s">
+      <c r="AH1" s="25"/>
+      <c r="AJ1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AO1" s="24" t="s">
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AO1" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AT1" s="24" t="s">
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AT1" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AY1" s="24" t="s">
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AY1" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BD1" s="24" t="s">
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BD1" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BI1" s="24" t="s">
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BI1" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
-      <c r="BN1" s="24" t="s">
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BN1" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BS1" s="25" t="s">
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BS1" s="26" t="s">
         <v>721</v>
       </c>
-      <c r="BT1" s="25"/>
-      <c r="BU1" s="25"/>
-      <c r="BV1" s="25"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="26"/>
     </row>
     <row r="2" spans="1:74" ht="15">
       <c r="A2" s="1" t="s">
@@ -8550,40 +8567,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="15">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -10805,19 +10822,21 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15">
-      <c r="A107" t="s">
+      <c r="A107" s="21"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15">
+      <c r="A108" t="s">
         <v>342</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C108" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="D107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15">
-      <c r="C108" s="16" t="s">
-        <v>349</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -10825,7 +10844,7 @@
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="C109" s="16" t="s">
-        <v>453</v>
+        <v>349</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
@@ -10835,10 +10854,10 @@
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110" s="16" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D110" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E110"/>
       <c r="F110"/>
@@ -10847,52 +10866,49 @@
       <c r="I110"/>
     </row>
     <row r="111" spans="1:9" ht="15">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="D111" s="1">
+        <v>4</v>
+      </c>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:9" ht="15">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="D111" s="1">
-        <v>1</v>
-      </c>
-      <c r="E111" s="17"/>
-    </row>
-    <row r="112" spans="1:9" ht="15">
-      <c r="A112" t="s">
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15">
+      <c r="A113" t="s">
         <v>478</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C113" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="D112" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15">
-      <c r="C113" s="16" t="s">
+      <c r="D113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15">
+      <c r="C114" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="D113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15">
-      <c r="A114" t="s">
-        <v>488</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>494</v>
-      </c>
       <c r="D114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15">
       <c r="A115" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -10900,21 +10916,24 @@
     </row>
     <row r="116" spans="1:9" ht="15">
       <c r="A116" t="s">
+        <v>514</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15">
+      <c r="A117" t="s">
         <v>537</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C117" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15">
-      <c r="C117" s="16" t="s">
-        <v>587</v>
-      </c>
       <c r="D117" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
@@ -10923,37 +10942,37 @@
     </row>
     <row r="118" spans="1:9" ht="15">
       <c r="C118" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15">
+      <c r="C119" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D119" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15">
-      <c r="A119" t="s">
-        <v>613</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="D119" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15">
       <c r="A120" t="s">
+        <v>613</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15">
+      <c r="A121" t="s">
         <v>622</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C121" s="16" t="s">
         <v>627</v>
-      </c>
-      <c r="D120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15">
-      <c r="C121" s="16" t="s">
-        <v>646</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -10961,187 +10980,189 @@
     </row>
     <row r="122" spans="1:9" ht="15">
       <c r="C122" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15">
+      <c r="C123" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="15">
-      <c r="A123" s="19"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="16" t="s">
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="19" customFormat="1" ht="15">
+      <c r="C124" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="D123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="19" customFormat="1" ht="15">
-      <c r="A124" t="s">
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15">
+      <c r="A125" t="s">
         <v>652</v>
       </c>
-      <c r="B124"/>
-      <c r="C124" s="16" t="s">
+      <c r="C125" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="D124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15">
-      <c r="C125" s="11" t="s">
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15">
+      <c r="C126" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15">
-      <c r="C126" s="16" t="s">
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15">
+      <c r="C127" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="D126" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15">
-      <c r="A127" s="19"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="16" t="s">
+      <c r="D127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="19" customFormat="1" ht="15">
+      <c r="C128" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="D127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="19" customFormat="1" ht="15">
-      <c r="A128" t="s">
-        <v>658</v>
-      </c>
-      <c r="B128"/>
-      <c r="C128" s="16" t="s">
-        <v>663</v>
-      </c>
       <c r="D128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" t="s">
+        <v>658</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="D129" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15">
+      <c r="A130" t="s">
         <v>678</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C130" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="D129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15">
-      <c r="C130" s="16" t="s">
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15">
+      <c r="C131" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="D130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15">
-      <c r="A131" t="s">
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15">
+      <c r="A132" t="s">
         <v>707</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C132" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="D131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15">
-      <c r="C132" s="16" t="s">
-        <v>726</v>
-      </c>
       <c r="D132" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15">
       <c r="C133" s="16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D133" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15">
       <c r="C134" s="16" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D134" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15">
       <c r="C135" s="16" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="D135" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15">
       <c r="C136" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D136" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15">
       <c r="C137" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15">
+      <c r="C138" s="16" t="s">
         <v>743</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D138" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15">
-      <c r="C138" s="11" t="s">
+    <row r="139" spans="1:4" ht="15">
+      <c r="C139" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="D138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15">
-      <c r="C139" s="16" t="s">
-        <v>748</v>
-      </c>
       <c r="D139" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15">
       <c r="C140" s="16" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D140" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15">
       <c r="C141" s="16" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15">
       <c r="C142" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15">
+      <c r="C143" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D143" s="1">
         <v>5</v>
       </c>
     </row>
@@ -11173,42 +11194,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Z1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
     </row>
     <row r="2" spans="1:30" ht="15">
       <c r="A2" s="1" t="s">
@@ -13946,11 +13967,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM93"/>
+  <dimension ref="A1:AM94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P63" sqref="P63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -13961,55 +13982,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
       <c r="Y1" s="9"/>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AE1" s="24" t="s">
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AE1" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AJ1" s="24" t="s">
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AJ1" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
     </row>
     <row r="2" spans="1:39" ht="15">
       <c r="A2" s="1" t="s">
@@ -15861,11 +15882,10 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="15">
-      <c r="A53" t="s">
-        <v>344</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>350</v>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="11" t="s">
+        <v>802</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -15886,8 +15906,10 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="15">
-      <c r="C54" s="1" t="s">
-        <v>452</v>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="11" t="s">
+        <v>803</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -15910,10 +15932,11 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="11" t="s">
-        <v>529</v>
+      <c r="A55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -15937,11 +15960,8 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15">
-      <c r="A56" t="s">
-        <v>488</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -15964,14 +15984,13 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15">
-      <c r="A57" t="s">
-        <v>514</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>515</v>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="11" t="s">
+        <v>529</v>
       </c>
       <c r="D57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>276</v>
@@ -15990,13 +16009,13 @@
     </row>
     <row r="58" spans="1:14" ht="15">
       <c r="A58" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="D58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>301</v>
@@ -16017,8 +16036,11 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15">
-      <c r="C59" s="11" t="s">
-        <v>564</v>
+      <c r="A59" t="s">
+        <v>514</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
@@ -16042,13 +16064,13 @@
     </row>
     <row r="60" spans="1:14" ht="15">
       <c r="A60" t="s">
-        <v>613</v>
+        <v>537</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>278</v>
@@ -16068,11 +16090,11 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="15">
-      <c r="C61" s="1" t="s">
-        <v>619</v>
+      <c r="C61" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>308</v>
@@ -16094,10 +16116,10 @@
     </row>
     <row r="62" spans="1:14" ht="15">
       <c r="A62" t="s">
-        <v>622</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>636</v>
+        <v>613</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -16122,7 +16144,7 @@
     </row>
     <row r="63" spans="1:14" ht="15">
       <c r="C63" s="1" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -16147,10 +16169,10 @@
     </row>
     <row r="64" spans="1:14" ht="15">
       <c r="A64" t="s">
-        <v>652</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>636</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -16172,8 +16194,8 @@
       </c>
     </row>
     <row r="65" spans="1:25" ht="15">
-      <c r="C65" s="11" t="s">
-        <v>636</v>
+      <c r="C65" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -16195,8 +16217,11 @@
       </c>
     </row>
     <row r="66" spans="1:25" ht="15">
+      <c r="A66" t="s">
+        <v>652</v>
+      </c>
       <c r="C66" s="1" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -16215,11 +16240,8 @@
       </c>
     </row>
     <row r="67" spans="1:25" ht="15">
-      <c r="A67" t="s">
-        <v>667</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>627</v>
+      <c r="C67" s="11" t="s">
+        <v>636</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -16238,11 +16260,8 @@
       </c>
     </row>
     <row r="68" spans="1:25" ht="15">
-      <c r="A68" t="s">
-        <v>670</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -16267,8 +16286,11 @@
       </c>
     </row>
     <row r="69" spans="1:25" ht="15">
+      <c r="A69" t="s">
+        <v>667</v>
+      </c>
       <c r="C69" s="1" t="s">
-        <v>699</v>
+        <v>627</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -16291,13 +16313,13 @@
     </row>
     <row r="70" spans="1:25" ht="15">
       <c r="A70" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="D70" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>332</v>
@@ -16317,7 +16339,7 @@
     </row>
     <row r="71" spans="1:25" ht="15">
       <c r="C71" s="1" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -16339,11 +16361,14 @@
       </c>
     </row>
     <row r="72" spans="1:25" ht="15">
-      <c r="C72" s="11" t="s">
-        <v>722</v>
+      <c r="A72" t="s">
+        <v>711</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="D72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>336</v>
@@ -16365,10 +16390,10 @@
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73" s="1" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D73" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
@@ -16391,21 +16416,19 @@
     <row r="74" spans="1:25" s="17" customFormat="1" ht="15">
       <c r="A74"/>
       <c r="B74"/>
-      <c r="C74" s="1" t="s">
-        <v>729</v>
+      <c r="C74" s="11" t="s">
+        <v>722</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
       </c>
-      <c r="F74" t="s">
-        <v>344</v>
-      </c>
-      <c r="G74"/>
-      <c r="H74" s="16" t="s">
-        <v>451</v>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="11" t="s">
+        <v>801</v>
       </c>
       <c r="I74" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K74" s="17" t="s">
         <v>652</v>
@@ -16421,19 +16444,20 @@
       <c r="Y74" s="10"/>
     </row>
     <row r="75" spans="1:25" ht="15">
-      <c r="C75" s="11" t="s">
-        <v>733</v>
+      <c r="C75" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="D75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="11" t="s">
-        <v>526</v>
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>344</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="I75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M75" s="11" t="s">
         <v>641</v>
@@ -16443,18 +16467,16 @@
       </c>
     </row>
     <row r="76" spans="1:25" ht="15">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
       <c r="C76" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="D76" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I76" s="1">
         <v>2</v>
@@ -16467,84 +16489,82 @@
       </c>
     </row>
     <row r="77" spans="1:25" ht="15">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="15">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>478</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="15">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="D77" s="1">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s">
-        <v>478</v>
-      </c>
-      <c r="H77" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="I77" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="15">
-      <c r="C78" s="1" t="s">
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>537</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="15">
+      <c r="C80" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D78" s="1">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s">
-        <v>537</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="I78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" ht="15">
-      <c r="C79" s="1" t="s">
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15">
+      <c r="C81" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D79" s="1">
-        <v>3</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="I79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" ht="15">
-      <c r="C80" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="D80" s="1">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
         <v>622</v>
-      </c>
-      <c r="H80" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="I80" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15">
-      <c r="A81" t="s">
-        <v>790</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>652</v>
       </c>
       <c r="H81" s="16" t="s">
         <v>625</v>
@@ -16554,113 +16574,139 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15">
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>652</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="I82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15">
+      <c r="A83" t="s">
+        <v>790</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15">
+      <c r="C84" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D82" s="1">
-        <v>1</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15">
-      <c r="F83" t="s">
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
         <v>711</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H84" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I84" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15">
-      <c r="H84" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="I84" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15">
       <c r="H85" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15">
+      <c r="H86" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="I85" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15">
-      <c r="H86" s="11" t="s">
+      <c r="I86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15">
+      <c r="H87" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="I86" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15">
-      <c r="H87" s="16" t="s">
-        <v>736</v>
-      </c>
       <c r="I87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15">
       <c r="H88" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="I88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15">
+      <c r="H89" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="I88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15">
-      <c r="H89" s="11" t="s">
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15">
+      <c r="H90" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="I89" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15">
-      <c r="H90" s="16" t="s">
-        <v>753</v>
-      </c>
       <c r="I90" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15">
       <c r="H91" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15">
+      <c r="H92" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="I91" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15">
-      <c r="H92" s="11" t="s">
+      <c r="I92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15">
+      <c r="H93" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="I92" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15">
-      <c r="F93" t="s">
+      <c r="I93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15">
+      <c r="F94" t="s">
         <v>790</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H94" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I94" s="1">
         <v>11</v>
       </c>
     </row>
@@ -16692,58 +16738,58 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="S1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Z1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24" t="s">
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AE1" s="24" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AE1" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AJ1" s="24" t="s">
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AJ1" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
     </row>
     <row r="2" spans="1:39" ht="15">
       <c r="A2" s="1" t="s">
@@ -18396,48 +18442,48 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:34" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Z1" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AE1" s="24" t="s">
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AE1" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
     </row>
     <row r="2" spans="1:34" ht="15">
       <c r="A2" s="1" t="s">
@@ -19624,42 +19670,42 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:29" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="P1" s="25" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="U1" s="25" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="U1" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Z1" s="25" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Z1" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" ht="15">
       <c r="A2" s="1" t="s">
@@ -20883,30 +20929,30 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="1" t="s">
@@ -22076,30 +22122,30 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="P1" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="1" t="s">
